--- a/Dicionario_dados/Dicionario de Dados.xlsx
+++ b/Dicionario_dados/Dicionario de Dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaog\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VALORANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB7C6CC-1D62-43DE-B240-0AF2999110FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809163AA-3002-4472-B93E-9AC8754F1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9FDCEF93-11AC-48A9-A2EA-EBFCC59918AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9FDCEF93-11AC-48A9-A2EA-EBFCC59918AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="177">
   <si>
     <t>Dicionário de Dados</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>CHAR</t>
-  </si>
-  <si>
-    <t>INT(NN)</t>
   </si>
   <si>
     <t>1--11</t>
@@ -831,6 +828,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -849,26 +885,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -878,42 +911,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,7 +930,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1251,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5168DB1-9839-43C7-85D1-F89D7E910797}">
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,62 +1263,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="B3" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1342,15 +1339,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
@@ -1358,14 +1355,14 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
@@ -1373,19 +1370,19 @@
         <v>35</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
@@ -1393,19 +1390,19 @@
         <v>34</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="9" t="s">
         <v>33</v>
       </c>
@@ -1413,19 +1410,19 @@
         <v>36</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
@@ -1433,19 +1430,19 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="20" t="s">
         <v>33</v>
       </c>
@@ -1453,19 +1450,19 @@
         <v>37</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="9" t="s">
         <v>40</v>
       </c>
@@ -1473,19 +1470,19 @@
         <v>38</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="9" t="s">
         <v>40</v>
       </c>
@@ -1493,31 +1490,31 @@
         <v>39</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="14" t="s">
         <v>13</v>
       </c>
@@ -1527,31 +1524,31 @@
       <c r="E15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="35"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="35"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1577,47 +1574,47 @@
       <c r="A20" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
+      <c r="B21" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
@@ -1638,15 +1635,15 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
@@ -1654,36 +1651,36 @@
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="33"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="9" t="s">
         <v>33</v>
       </c>
@@ -1691,39 +1688,39 @@
         <v>35</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="9" t="s">
         <v>33</v>
       </c>
@@ -1731,71 +1728,71 @@
         <v>35</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="33"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="14" t="s">
         <v>13</v>
       </c>
@@ -1805,45 +1802,43 @@
       <c r="E32" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="38"/>
+      <c r="A33" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="25"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="37" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="39"/>
-      <c r="H33" s="38"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" s="38"/>
+      <c r="A34" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="25"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="16"/>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="38"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
@@ -1860,47 +1855,47 @@
       <c r="A37" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="23"/>
+      <c r="B37" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
+      <c r="B38" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="31"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="3" t="s">
         <v>5</v>
       </c>
@@ -1921,15 +1916,15 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="33"/>
+      <c r="A41" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="22"/>
       <c r="C41" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
@@ -1937,36 +1932,36 @@
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="33"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="33"/>
+      <c r="A43" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="22"/>
       <c r="C43" s="6" t="s">
         <v>33</v>
       </c>
@@ -1974,111 +1969,111 @@
         <v>36</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="33"/>
+      <c r="A44" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="22"/>
       <c r="C44" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="33"/>
+      <c r="A45" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="22"/>
       <c r="C45" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="33"/>
+      <c r="A46" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="22"/>
       <c r="C46" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="33"/>
+      <c r="A47" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="22"/>
       <c r="C47" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="6">
         <v>10.199999999999999</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="42"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="12" t="s">
         <v>13</v>
       </c>
@@ -2088,43 +2083,43 @@
       <c r="E49" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="40" t="s">
+      <c r="F49" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="41"/>
-      <c r="H49" s="42"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="45"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="44"/>
+      <c r="A50" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="41"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="10"/>
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="45"/>
-      <c r="H50" s="44"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="41"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" s="44"/>
+      <c r="A51" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="41"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="10"/>
-      <c r="F51" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" s="45"/>
-      <c r="H51" s="44"/>
+      <c r="F51" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="42"/>
+      <c r="H51" s="41"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
@@ -2141,47 +2136,47 @@
       <c r="A54" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="23"/>
+      <c r="B54" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="26"/>
+      <c r="B55" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="39"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="29"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="31"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="31"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2202,15 +2197,15 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="33"/>
+      <c r="A58" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="22"/>
       <c r="C58" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="9" t="s">
@@ -2218,192 +2213,192 @@
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" s="33"/>
+      <c r="A59" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="22"/>
       <c r="C59" s="9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="33"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="33"/>
+      <c r="A61" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="22"/>
       <c r="C61" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="33"/>
+      <c r="A62" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="22"/>
       <c r="C62" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="33"/>
+      <c r="A63" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="22"/>
       <c r="C63" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="33"/>
+      <c r="A64" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="22"/>
       <c r="C64" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D64" s="9">
         <v>10.199999999999999</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="33"/>
+      <c r="A65" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="22"/>
       <c r="C65" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D65" s="9">
         <v>10.199999999999999</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" s="33"/>
+      <c r="A66" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" s="22"/>
       <c r="C66" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="42"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="45"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="42"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="12" t="s">
         <v>13</v>
       </c>
@@ -2413,43 +2408,43 @@
       <c r="E68" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="40" t="s">
+      <c r="F68" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="42"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="45"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="B69" s="44"/>
+      <c r="A69" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="41"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="10"/>
-      <c r="F69" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="45"/>
-      <c r="H69" s="44"/>
+      <c r="F69" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G69" s="42"/>
+      <c r="H69" s="41"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="B70" s="44"/>
+      <c r="A70" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="41"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="10"/>
-      <c r="F70" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="G70" s="45"/>
-      <c r="H70" s="44"/>
+      <c r="F70" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" s="42"/>
+      <c r="H70" s="41"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
@@ -2466,47 +2461,47 @@
       <c r="A73" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="23"/>
+      <c r="B73" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="36"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="26"/>
+      <c r="B74" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="39"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="29"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="31"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="31"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="3" t="s">
         <v>5</v>
       </c>
@@ -2527,15 +2522,15 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B77" s="33"/>
+      <c r="A77" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="22"/>
       <c r="C77" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9" t="s">
@@ -2543,166 +2538,166 @@
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="33"/>
+      <c r="A78" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="22"/>
       <c r="C78" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="33"/>
+      <c r="A79" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="22"/>
       <c r="C79" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B80" s="33"/>
+      <c r="A80" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="22"/>
       <c r="C80" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D80" s="9">
         <v>10.199999999999999</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81" s="33"/>
+      <c r="A81" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="22"/>
       <c r="C81" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" s="33"/>
+      <c r="A82" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="22"/>
       <c r="C82" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83" s="33"/>
+      <c r="A83" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="22"/>
       <c r="C83" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" s="33"/>
+      <c r="A84" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="22"/>
       <c r="C84" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D84" s="9">
         <v>10.199999999999999</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="29"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="31"/>
     </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="29"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="14" t="s">
         <v>13</v>
       </c>
@@ -2712,41 +2707,43 @@
       <c r="E86" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="27" t="s">
+      <c r="F86" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G86" s="28"/>
-      <c r="H86" s="29"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="31"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" s="38"/>
+      <c r="A87" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="25"/>
       <c r="C87" s="16"/>
       <c r="D87" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E87" s="16"/>
-      <c r="F87" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G87" s="39"/>
-      <c r="H87" s="38"/>
+      <c r="F87" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" s="26"/>
+      <c r="H87" s="25"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B88" s="38"/>
+      <c r="A88" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="25"/>
       <c r="C88" s="16"/>
       <c r="D88" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="16"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="38"/>
+      <c r="F88" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G88" s="26"/>
+      <c r="H88" s="25"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
@@ -2763,47 +2760,47 @@
       <c r="A91" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="23"/>
+      <c r="B91" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="36"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="26"/>
+      <c r="B92" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="39"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="29"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="31"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="31"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="3" t="s">
         <v>5</v>
       </c>
@@ -2824,15 +2821,15 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B95" s="33"/>
+      <c r="A95" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" s="22"/>
       <c r="C95" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9" t="s">
@@ -2840,56 +2837,56 @@
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B96" s="33"/>
+      <c r="A96" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="22"/>
       <c r="C96" s="9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B97" s="33"/>
+      <c r="A97" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" s="22"/>
       <c r="C97" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B98" s="33"/>
+      <c r="A98" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="22"/>
       <c r="C98" s="9" t="s">
         <v>33</v>
       </c>
@@ -2897,19 +2894,19 @@
         <v>36</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B99" s="33"/>
+      <c r="A99" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" s="22"/>
       <c r="C99" s="9" t="s">
         <v>33</v>
       </c>
@@ -2917,51 +2914,51 @@
         <v>35</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B100" s="33"/>
+      <c r="A100" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" s="22"/>
       <c r="C100" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="29"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="31"/>
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="27" t="s">
+      <c r="A102" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="29"/>
+      <c r="B102" s="31"/>
       <c r="C102" s="14" t="s">
         <v>13</v>
       </c>
@@ -2971,43 +2968,43 @@
       <c r="E102" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F102" s="27" t="s">
+      <c r="F102" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="28"/>
-      <c r="H102" s="29"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="31"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B103" s="38"/>
+      <c r="A103" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="25"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E103" s="16"/>
-      <c r="F103" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G103" s="39"/>
-      <c r="H103" s="38"/>
+      <c r="F103" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G103" s="26"/>
+      <c r="H103" s="25"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="B104" s="38"/>
+      <c r="A104" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" s="25"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E104" s="16"/>
-      <c r="F104" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G104" s="39"/>
-      <c r="H104" s="38"/>
+      <c r="F104" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G104" s="26"/>
+      <c r="H104" s="25"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
@@ -3024,47 +3021,47 @@
       <c r="A107" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="23"/>
+      <c r="B107" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="36"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="26"/>
+      <c r="B108" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="39"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="27" t="s">
+      <c r="A109" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="29"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="31"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="31"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="3" t="s">
         <v>5</v>
       </c>
@@ -3085,15 +3082,15 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B111" s="33"/>
+      <c r="A111" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B111" s="22"/>
       <c r="C111" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="9" t="s">
@@ -3101,108 +3098,108 @@
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B112" s="33"/>
+      <c r="A112" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="22"/>
       <c r="C112" s="9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B113" s="33"/>
+      <c r="A113" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B113" s="22"/>
       <c r="C113" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B114" s="33"/>
+      <c r="A114" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B114" s="22"/>
       <c r="C114" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B115" s="33"/>
+      <c r="A115" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B115" s="22"/>
       <c r="C115" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D115" s="9">
         <v>10.199999999999999</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="27" t="s">
+      <c r="A116" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="29"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="31"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="27" t="s">
+      <c r="A117" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="29"/>
+      <c r="B117" s="31"/>
       <c r="C117" s="14" t="s">
         <v>13</v>
       </c>
@@ -3212,37 +3209,37 @@
       <c r="E117" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F117" s="27" t="s">
+      <c r="F117" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G117" s="28"/>
-      <c r="H117" s="29"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="31"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B118" s="38"/>
+      <c r="A118" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" s="25"/>
       <c r="C118" s="16"/>
       <c r="D118" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="16"/>
-      <c r="F118" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="G118" s="39"/>
-      <c r="H118" s="38"/>
+      <c r="F118" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G118" s="26"/>
+      <c r="H118" s="25"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="37"/>
-      <c r="B119" s="38"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="25"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="39"/>
-      <c r="H119" s="38"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
@@ -3259,47 +3256,47 @@
       <c r="A122" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="23"/>
+      <c r="B122" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="36"/>
     </row>
     <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="26"/>
+      <c r="B123" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="38"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="38"/>
+      <c r="G123" s="38"/>
+      <c r="H123" s="39"/>
     </row>
     <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
+      <c r="A124" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="29"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="31"/>
     </row>
     <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="30" t="s">
+      <c r="A125" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="31"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="3" t="s">
         <v>5</v>
       </c>
@@ -3320,15 +3317,15 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B126" s="33"/>
+      <c r="A126" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" s="22"/>
       <c r="C126" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9" t="s">
@@ -3336,128 +3333,128 @@
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B127" s="33"/>
+      <c r="A127" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B127" s="22"/>
       <c r="C127" s="9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B128" s="33"/>
+      <c r="A128" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B128" s="22"/>
       <c r="C128" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B129" s="33"/>
+      <c r="A129" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B129" s="22"/>
       <c r="C129" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D129" s="9">
         <v>10.199999999999999</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B130" s="33"/>
+      <c r="A130" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B130" s="22"/>
       <c r="C130" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B131" s="33"/>
+      <c r="A131" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B131" s="22"/>
       <c r="C131" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="27" t="s">
+      <c r="A132" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="28"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="28"/>
-      <c r="H132" s="29"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="31"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B133" s="29"/>
+      <c r="B133" s="31"/>
       <c r="C133" s="14" t="s">
         <v>13</v>
       </c>
@@ -3467,46 +3464,167 @@
       <c r="E133" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F133" s="27" t="s">
+      <c r="F133" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G133" s="28"/>
-      <c r="H133" s="29"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="31"/>
     </row>
     <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="B134" s="38"/>
+      <c r="A134" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" s="25"/>
       <c r="C134" s="16"/>
       <c r="D134" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E134" s="16"/>
-      <c r="F134" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G134" s="39"/>
-      <c r="H134" s="38"/>
+      <c r="F134" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G134" s="26"/>
+      <c r="H134" s="25"/>
     </row>
     <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B135" s="38"/>
+      <c r="A135" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" s="25"/>
       <c r="C135" s="16"/>
       <c r="D135" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E135" s="16"/>
-      <c r="F135" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="G135" s="39"/>
-      <c r="H135" s="38"/>
+      <c r="F135" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G135" s="26"/>
+      <c r="H135" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="145">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A101:H101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B123:H123"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="F117:H117"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A135:B135"/>
@@ -3531,127 +3649,6 @@
     <mergeCell ref="A128:B128"/>
     <mergeCell ref="A129:B129"/>
     <mergeCell ref="A118:B118"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B123:H123"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="B107:H107"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A101:H101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:H67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="F17:H17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
